--- a/HRM/api/Resources/Template/SalaryReport/7_2_14_TaxPayingEmployeeMonthlyNightShiftExtraPayAndOvertimePay/Download.xlsx
+++ b/HRM/api/Resources/Template/SalaryReport/7_2_14_TaxPayingEmployeeMonthlyNightShiftExtraPayAndOvertimePay/Download.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>7.2.14繳稅人員月份多給付上夜班之薪資及加班費Tax-Paying Employee's Monthly Night Shift Extra Pay and Overtime Pay</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Overtime Hours </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>廠別</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -210,16 +206,41 @@
     <t>Department Name</t>
   </si>
   <si>
+    <t>HRMS_Sal_Monthly_Detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format 
+XXX,XXX,XXX,XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NHNO_AMT + HO_AMT + INS_AMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Wage Standard</t>
+  </si>
+  <si>
+    <t>A06_AMT</t>
+  </si>
+  <si>
+    <t>Overtime50_AMT</t>
+  </si>
+  <si>
+    <t>NHNO_AMT</t>
+  </si>
+  <si>
+    <t>HO_AMT</t>
+  </si>
+  <si>
+    <t>INS_AMT</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Leave_Type = '2'</t>
     </r>
     <r>
@@ -234,89 +255,12 @@
 HRMS_Att_Monthly_Detail.Days</t>
     </r>
   </si>
-  <si>
-    <t>HRMS_Sal_Monthly_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>format 
-XXX,XXX,XXX,XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NHNO_AMT + HO_AMT + INS_AMT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRMS_Att_Resign_Monthly_Detail.Days</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HRMS_Sal_Resign_Monthly_Detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type_Seq = 42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST ROW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核決:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>審核:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>製表:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approved by:</t>
-  </si>
-  <si>
-    <t>Checked by:</t>
-  </si>
-  <si>
-    <t>Applicant:</t>
-  </si>
-  <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>Wage Standard</t>
-  </si>
-  <si>
-    <t>A06_AMT</t>
-  </si>
-  <si>
-    <t>Overtime50_AMT</t>
-  </si>
-  <si>
-    <t>NHNO_AMT</t>
-  </si>
-  <si>
-    <t>HO_AMT</t>
-  </si>
-  <si>
-    <t>INS_AMT</t>
-  </si>
-  <si>
-    <t>Overtime and Night Shift Allowance</t>
-  </si>
-  <si>
-    <t>排序依照5.1.9的序號 小到大</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,15 +273,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,23 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -399,6 +317,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -449,78 +375,57 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -804,315 +709,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.28515625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="27" style="11" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="29.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="15.75">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" s="8" customFormat="1" ht="16.5">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" s="13" customFormat="1" ht="16.5">
-      <c r="A5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="10" t="s">
+    <row r="6" spans="1:17" s="8" customFormat="1" ht="45">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="11" t="s">
+      <c r="J6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>29</v>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="20" customFormat="1" ht="45">
-      <c r="A6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="19" t="s">
+    <row r="7" spans="1:17" s="13" customFormat="1" ht="45.75">
+      <c r="B7" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" ht="45.75">
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="G7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="K7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="H8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:17" ht="15.75">
-      <c r="H9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
